--- a/data/trans_bre/P1001-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1001-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,44%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>43,73%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,18; 17,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,42</t>
+          <t>-1,5; 3,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,77; 227,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-43,05; 239,02</t>
+          <t>-43,09; 254,76</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,9%</t>
+          <t>42,53%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 6,79</t>
+          <t>-0,93; 6,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 112,03</t>
+          <t>-11,52; 115,83</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>60,93%</t>
+          <t>62,97%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 6,48</t>
+          <t>0,12; 6,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 191,03</t>
+          <t>0,18; 195,83</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,77</t>
+          <t>15,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>181,18%</t>
+          <t>288,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>82,93%</t>
+          <t>52,77%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 17,74</t>
+          <t>10,91; 20,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 9,21</t>
+          <t>-2,18; 7,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>108,88; 288,57</t>
+          <t>136,83; 526,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 233,56</t>
+          <t>-26,07; 169,3</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>207,01%</t>
+          <t>212,56%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 10,08</t>
+          <t>3,32; 10,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59,55; 551,78</t>
+          <t>60,96; 555,71</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>46,24%</t>
+          <t>49,48%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 6,56</t>
+          <t>-0,45; 6,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 163,1</t>
+          <t>-7,43; 170,23</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>47,74%</t>
+          <t>29,98%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 8,01</t>
+          <t>-4,23; 7,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 105,94</t>
+          <t>-36,13; 96,18</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,64</t>
+          <t>11,82</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>193,42%</t>
+          <t>272,1%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,85; 13,93</t>
+          <t>8,95; 16,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>110,25; 318,48</t>
+          <t>141,14; 845,12</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>87,12%</t>
+          <t>87,59%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,82</t>
+          <t>3,01; 6,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>55,22; 122,55</t>
+          <t>48,23; 139,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1001-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1001-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 7,15</t>
+          <t>-3,84; 7,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,18; 17,32</t>
+          <t>5,3; 17,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 16,93</t>
+          <t>2,7; 16,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,55</t>
+          <t>-1,39; 3,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 99,24</t>
+          <t>-30,4; 99,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,77; 227,09</t>
+          <t>31,95; 232,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,41; 135,08</t>
+          <t>12,27; 124,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-43,09; 254,76</t>
+          <t>-44,58; 262,41</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 10,68</t>
+          <t>2,78; 10,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 11,54</t>
+          <t>2,91; 11,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 9,56</t>
+          <t>3,49; 9,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 6,83</t>
+          <t>-0,8; 6,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,38; 162,48</t>
+          <t>24,54; 168,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,76; 200,34</t>
+          <t>28,35; 188,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,91; 523,63</t>
+          <t>77,51; 516,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 115,83</t>
+          <t>-8,35; 109,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,93</t>
+          <t>-1,45; 4,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 10,15</t>
+          <t>1,46; 10,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,64</t>
+          <t>0,51; 6,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 6,51</t>
+          <t>-0,18; 6,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,9; 307,85</t>
+          <t>-45,95; 339,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,12; 294,93</t>
+          <t>16,93; 295,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 637,43</t>
+          <t>1,1; 532,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 195,83</t>
+          <t>-4,2; 165,78</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 8,59</t>
+          <t>2,0; 8,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,91; 20,44</t>
+          <t>11,33; 20,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 17,18</t>
+          <t>6,55; 16,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 7,39</t>
+          <t>-2,25; 7,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,11; 579,69</t>
+          <t>30,21; 572,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>136,83; 526,3</t>
+          <t>149,63; 544,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,37; 243,48</t>
+          <t>57,19; 246,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,07; 169,3</t>
+          <t>-25,03; 172,07</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 5,9</t>
+          <t>-4,69; 5,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,28; 19,87</t>
+          <t>7,97; 20,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 7,17</t>
+          <t>-1,43; 7,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 10,28</t>
+          <t>3,45; 10,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-49,49; 135,91</t>
+          <t>-52,79; 130,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>99,5; 716,4</t>
+          <t>96,53; 698,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 246,18</t>
+          <t>-30,81; 271,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60,96; 555,71</t>
+          <t>54,83; 571,92</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 6,21</t>
+          <t>0,52; 6,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 7,87</t>
+          <t>-2,2; 8,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 12,5</t>
+          <t>1,16; 12,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 6,64</t>
+          <t>-0,64; 6,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,13; 1494,41</t>
+          <t>-6,5; 1108,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 136,39</t>
+          <t>-19,44; 152,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,37; 247,69</t>
+          <t>3,0; 222,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 170,23</t>
+          <t>-10,43; 157,76</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,0; 7,88</t>
+          <t>1,51; 7,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,07</t>
+          <t>0,37; 5,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 9,83</t>
+          <t>2,96; 9,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 7,42</t>
+          <t>-5,14; 7,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,41; 182,36</t>
+          <t>21,45; 180,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,02; 160,35</t>
+          <t>5,27; 156,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>37,45; 193,6</t>
+          <t>33,95; 200,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-36,13; 96,18</t>
+          <t>-43,76; 99,2</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 4,73</t>
+          <t>-1,59; 4,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,92</t>
+          <t>3,79; 10,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,55</t>
+          <t>1,81; 6,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,95; 16,1</t>
+          <t>8,62; 16,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 71,55</t>
+          <t>-17,4; 66,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>37,57; 147,87</t>
+          <t>36,33; 145,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,6; 206,18</t>
+          <t>34,36; 214,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>141,14; 845,12</t>
+          <t>135,41; 708,5</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,7</t>
+          <t>1,98; 4,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,11; 8,98</t>
+          <t>5,9; 9,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,64; 7,54</t>
+          <t>4,74; 7,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,01; 6,75</t>
+          <t>2,87; 6,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>31,78; 87,28</t>
+          <t>29,8; 85,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>78,56; 141,47</t>
+          <t>75,82; 139,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>69,69; 139,29</t>
+          <t>71,81; 138,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>48,23; 139,58</t>
+          <t>49,35; 139,21</t>
         </is>
       </c>
     </row>
